--- a/MS Projects/Waterhemp Resistance/Data Analysis - PRE/LOGIT Tukey HSD_HERBxRATE.xlsx
+++ b/MS Projects/Waterhemp Resistance/Data Analysis - PRE/LOGIT Tukey HSD_HERBxRATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/Master's - UW/MY RESEARCH PROJECTS/Waterhemp Resistance/Screenings/Pre/Data Analysis - All PRE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/MS Projects/Waterhemp Resistance/Data Analysis - PRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_B65E6EF986E1BB4B57C38DCC86D48964AA1B8D78" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2927410A-FB9F-48E3-AAC7-38435D0E5DCD}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_B65E6EF986E1BB4B57C38DCC86D48964AA1B8D78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485CAB30-013E-4F06-AEDB-C6EDD33B284A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,6 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -602,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -628,7 +629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -654,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -680,7 +681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -706,7 +707,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -732,7 +733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -758,7 +759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -784,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -810,7 +811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -836,7 +837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -863,7 +864,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H16" xr:uid="{D7230303-DAAA-4589-B862-657D494AB408}"/>
+  <autoFilter ref="A1:H16" xr:uid="{D7230303-DAAA-4589-B862-657D494AB408}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="0.5x"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/MS Projects/Waterhemp Resistance/Data Analysis - PRE/LOGIT Tukey HSD_HERBxRATE.xlsx
+++ b/MS Projects/Waterhemp Resistance/Data Analysis - PRE/LOGIT Tukey HSD_HERBxRATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/MS Projects/Waterhemp Resistance/Data Analysis - PRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_B65E6EF986E1BB4B57C38DCC86D48964AA1B8D78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485CAB30-013E-4F06-AEDB-C6EDD33B284A}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_B65E6EF986E1BB4B57C38DCC86D48964AA1B8D78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AACDB5-EA12-4562-AA14-AA92D6DB22EB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,11 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -629,7 +628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -655,7 +654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -681,7 +680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -707,7 +706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -733,7 +732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -759,7 +758,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -785,7 +784,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -811,7 +810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -837,7 +836,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -864,13 +863,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H16" xr:uid="{D7230303-DAAA-4589-B862-657D494AB408}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="0.5x"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H16" xr:uid="{D7230303-DAAA-4589-B862-657D494AB408}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
